--- a/labor-timekeeper/exports/2026-01/2026-01-26/Jason_Green_2026-01-26.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-26/Jason_Green_2026-01-26.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -35,7 +35,7 @@
     <t>2026-01-26</t>
   </si>
   <si>
-    <t>Cobb</t>
+    <t>Markfield</t>
   </si>
   <si>
     <t>Regular</t>
@@ -44,28 +44,25 @@
     <t>2026-01-27</t>
   </si>
   <si>
-    <t>Evans</t>
+    <t>Leixner/Smith</t>
   </si>
   <si>
     <t>2026-01-28</t>
   </si>
   <si>
-    <t>Davis</t>
+    <t>Hunter</t>
   </si>
   <si>
     <t>2026-01-29</t>
   </si>
   <si>
-    <t>Funke</t>
+    <t>O'Connor</t>
   </si>
   <si>
     <t>2026-01-30</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>OT</t>
+    <t>Varricchio</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -74,7 +71,7 @@
     <t/>
   </si>
   <si>
-    <t>Reg: 40 / OT: 5</t>
+    <t>Reg: 40 / OT: 0</t>
   </si>
   <si>
     <t>Category: HOURLY</t>
@@ -101,7 +98,7 @@
     <t>Jason Green</t>
   </si>
   <si>
-    <t>emp_0tnwvsb4</t>
+    <t>emp_qhpjptqm</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -558,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,16 +575,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,16 +615,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,76 +635,76 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -715,59 +712,39 @@
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -794,10 +771,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -818,15 +795,15 @@
         <v>3</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -835,27 +812,27 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -864,27 +841,27 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -893,27 +870,27 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -922,27 +899,27 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -951,48 +928,19 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
